--- a/biology/Botanique/Violette_lactée/Violette_lactée.xlsx
+++ b/biology/Botanique/Violette_lactée/Violette_lactée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Violette_lact%C3%A9e</t>
+          <t>Violette_lactée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola lactea
 La violette lactée (Viola lactea) est une plante herbacée vivace de la famille des Violacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Violette_lact%C3%A9e</t>
+          <t>Violette_lactée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pas de rosette de feuilles à la base de la plante. Les feuilles vert foncé, sont lancéolées et souvent teintées de pourpre. La base du limbe est cunéiforme, en forme de coin. Les fleurs sont bleu pâle avec un éperon jaune verdâtre. L'éperon est plus grand que les appendices du calice.  le pétale inférieur a un apex étroitement obtus à subaigu. Le fruit est une capsule glabre.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Violette_lact%C3%A9e</t>
+          <t>Violette_lactée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : fleur solitaire latérale
